--- a/src/main/webapp/WEB-INF/templates/PURCHASE_PO.xlsx
+++ b/src/main/webapp/WEB-INF/templates/PURCHASE_PO.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="21405" windowHeight="6765"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="21410" windowHeight="6770"/>
   </bookViews>
   <sheets>
     <sheet name="PO" sheetId="1" r:id="rId1"/>
@@ -12,8 +12,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">PO!$A$1:$M$36</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -215,7 +214,7 @@
     <numFmt numFmtId="176" formatCode="&quot;₩&quot;#,##0"/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="돋움"/>
@@ -535,81 +534,78 @@
     <xf numFmtId="177" fontId="9" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="5" fontId="11" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="11" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="5" fontId="11" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="9" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="5" fontId="11" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="11" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -644,6 +640,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -706,7 +705,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>838199</xdr:colOff>
+      <xdr:colOff>742949</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>95270</xdr:rowOff>
     </xdr:to>
@@ -787,7 +786,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -822,7 +821,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1095,45 +1094,45 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:N35"/>
+  <dimension ref="B2:N35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:L6"/>
+      <selection activeCell="B2" sqref="B2:L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="8.9140625" defaultRowHeight="13" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="3.6640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="16.77734375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="15.77734375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="12.77734375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="10.77734375" style="5" customWidth="1"/>
-    <col min="8" max="8" width="12.77734375" style="5" customWidth="1"/>
-    <col min="9" max="9" width="10.77734375" style="5" customWidth="1"/>
-    <col min="10" max="10" width="8.77734375" style="5" customWidth="1"/>
-    <col min="11" max="11" width="13.77734375" style="5" customWidth="1"/>
-    <col min="12" max="12" width="9.77734375" style="5" customWidth="1"/>
-    <col min="13" max="13" width="7.77734375" style="5" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="5"/>
+    <col min="3" max="3" width="16.75" style="5" customWidth="1"/>
+    <col min="4" max="4" width="12.75" style="5" customWidth="1"/>
+    <col min="5" max="5" width="15.75" style="5" customWidth="1"/>
+    <col min="6" max="6" width="12.75" style="5" customWidth="1"/>
+    <col min="7" max="7" width="10.75" style="5" customWidth="1"/>
+    <col min="8" max="8" width="12.75" style="5" customWidth="1"/>
+    <col min="9" max="9" width="10.75" style="5" customWidth="1"/>
+    <col min="10" max="10" width="8.75" style="5" customWidth="1"/>
+    <col min="11" max="11" width="13.75" style="5" customWidth="1"/>
+    <col min="12" max="12" width="9.75" style="5" customWidth="1"/>
+    <col min="13" max="13" width="7.75" style="5" customWidth="1"/>
+    <col min="14" max="16384" width="8.9140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="33" customHeight="1">
-      <c r="B2" s="32" t="s">
+    <row r="2" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-    </row>
-    <row r="3" spans="2:14" ht="14.25">
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+    </row>
+    <row r="3" spans="2:14" ht="15.5" x14ac:dyDescent="0.25">
       <c r="B3" s="6"/>
       <c r="C3" s="22"/>
       <c r="D3" s="9" t="s">
@@ -1146,13 +1145,13 @@
       <c r="I3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
     </row>
-    <row r="4" spans="2:14" ht="14.25">
+    <row r="4" spans="2:14" ht="15.5" x14ac:dyDescent="0.25">
       <c r="B4" s="6"/>
       <c r="C4" s="19"/>
       <c r="D4" s="9" t="s">
@@ -1165,13 +1164,13 @@
       <c r="I4" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
     </row>
-    <row r="5" spans="2:14" ht="17.100000000000001" customHeight="1">
+    <row r="5" spans="2:14" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="9"/>
       <c r="C5" s="10" t="s">
         <v>11</v>
@@ -1186,154 +1185,154 @@
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
     </row>
-    <row r="6" spans="2:14" ht="20.100000000000001" customHeight="1">
-      <c r="B6" s="25" t="s">
+    <row r="6" spans="2:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25" t="s">
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-    </row>
-    <row r="7" spans="2:14" ht="20.100000000000001" customHeight="1">
-      <c r="B7" s="25" t="s">
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+    </row>
+    <row r="7" spans="2:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="25" t="s">
+      <c r="C7" s="27"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="25"/>
-      <c r="I7" s="34" t="s">
+      <c r="H7" s="27"/>
+      <c r="I7" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-    </row>
-    <row r="8" spans="2:14" ht="39.950000000000003" customHeight="1">
-      <c r="B8" s="25" t="s">
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+    </row>
+    <row r="8" spans="2:14" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="25"/>
+      <c r="C8" s="27"/>
       <c r="D8" s="21"/>
       <c r="E8" s="4" t="s">
         <v>23</v>
       </c>
       <c r="F8" s="23"/>
-      <c r="G8" s="25" t="s">
+      <c r="G8" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="25"/>
+      <c r="H8" s="27"/>
       <c r="I8" s="3" t="s">
         <v>12</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K8" s="34" t="s">
+      <c r="K8" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="L8" s="34"/>
-    </row>
-    <row r="9" spans="2:14" ht="28.5" customHeight="1">
-      <c r="B9" s="25" t="s">
+      <c r="L8" s="28"/>
+    </row>
+    <row r="9" spans="2:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="25" t="s">
+      <c r="C9" s="27"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="25"/>
-      <c r="I9" s="37" t="s">
+      <c r="H9" s="27"/>
+      <c r="I9" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-    </row>
-    <row r="10" spans="2:14" ht="39.950000000000003" customHeight="1">
-      <c r="B10" s="25" t="s">
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+    </row>
+    <row r="10" spans="2:14" ht="40" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="25"/>
+      <c r="C10" s="27"/>
       <c r="D10" s="23"/>
       <c r="E10" s="4" t="s">
         <v>5</v>
       </c>
       <c r="F10" s="23"/>
-      <c r="G10" s="25" t="s">
+      <c r="G10" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="25"/>
+      <c r="H10" s="27"/>
       <c r="I10" s="3" t="s">
         <v>13</v>
       </c>
       <c r="J10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K10" s="34" t="s">
+      <c r="K10" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="L10" s="34"/>
-    </row>
-    <row r="11" spans="2:14" ht="20.100000000000001" customHeight="1">
-      <c r="B11" s="25" t="s">
+      <c r="L10" s="28"/>
+    </row>
+    <row r="11" spans="2:14" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="25"/>
+      <c r="C11" s="27"/>
       <c r="D11" s="23"/>
       <c r="E11" s="4" t="s">
         <v>7</v>
       </c>
       <c r="F11" s="23"/>
-      <c r="G11" s="25" t="s">
+      <c r="G11" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H11" s="25"/>
+      <c r="H11" s="27"/>
       <c r="I11" s="17" t="s">
         <v>14</v>
       </c>
       <c r="J11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K11" s="45" t="s">
+      <c r="K11" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="L11" s="45"/>
-    </row>
-    <row r="12" spans="2:14" ht="18.75" customHeight="1">
-      <c r="B12" s="25" t="s">
+      <c r="L11" s="39"/>
+    </row>
+    <row r="12" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="25" t="s">
+      <c r="C12" s="27"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="H12" s="25"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-    </row>
-    <row r="13" spans="2:14" ht="18.75" customHeight="1">
+      <c r="H12" s="27"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40"/>
+    </row>
+    <row r="13" spans="2:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
@@ -1346,22 +1345,22 @@
       <c r="K13" s="11"/>
       <c r="L13" s="11"/>
     </row>
-    <row r="14" spans="2:14" ht="17.100000000000001" customHeight="1">
-      <c r="B14" s="44" t="s">
+    <row r="14" spans="2:14" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="44"/>
-    </row>
-    <row r="15" spans="2:14" ht="8.25" customHeight="1">
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+    </row>
+    <row r="15" spans="2:14" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
@@ -1374,32 +1373,32 @@
       <c r="K15" s="12"/>
       <c r="L15" s="13"/>
     </row>
-    <row r="16" spans="2:14" ht="21.75" customHeight="1">
-      <c r="B16" s="25" t="s">
+    <row r="16" spans="2:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-    </row>
-    <row r="17" spans="2:13" ht="28.5">
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+    </row>
+    <row r="17" spans="2:13" ht="31" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C17" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="30" t="s">
+      <c r="D17" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="31"/>
+      <c r="E17" s="42"/>
       <c r="F17" s="18" t="s">
         <v>18</v>
       </c>
@@ -1409,76 +1408,76 @@
       <c r="H17" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I17" s="30" t="s">
+      <c r="I17" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="J17" s="31"/>
-      <c r="K17" s="41" t="s">
+      <c r="J17" s="42"/>
+      <c r="K17" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="L17" s="43"/>
-    </row>
-    <row r="18" spans="2:13" ht="39.950000000000003" customHeight="1">
+      <c r="L17" s="37"/>
+    </row>
+    <row r="18" spans="2:13" ht="40" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="4">
         <v>1</v>
       </c>
       <c r="C18" s="24"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="31"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="42"/>
       <c r="F18" s="18"/>
       <c r="G18" s="1"/>
       <c r="H18" s="2"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="43"/>
-    </row>
-    <row r="19" spans="2:13" ht="21" customHeight="1">
-      <c r="B19" s="41" t="s">
+      <c r="I18" s="45"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="37"/>
+    </row>
+    <row r="19" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="40"/>
-    </row>
-    <row r="20" spans="2:13" ht="20.100000000000001" customHeight="1">
-      <c r="B20" s="25" t="s">
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="34"/>
+    </row>
+    <row r="20" spans="2:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
-      <c r="L20" s="28"/>
-    </row>
-    <row r="21" spans="2:13" ht="20.100000000000001" customHeight="1">
-      <c r="B21" s="25" t="s">
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="47"/>
+    </row>
+    <row r="21" spans="2:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-    </row>
-    <row r="22" spans="2:13" ht="12.75" customHeight="1">
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="48"/>
+    </row>
+    <row r="22" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
@@ -1491,50 +1490,50 @@
       <c r="K22" s="12"/>
       <c r="L22" s="13"/>
     </row>
-    <row r="23" spans="2:13" ht="17.100000000000001" customHeight="1">
-      <c r="B23" s="25" t="s">
+    <row r="23" spans="2:13" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="25"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
-    </row>
-    <row r="24" spans="2:13" ht="17.100000000000001" customHeight="1">
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="27"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="27"/>
-    </row>
-    <row r="25" spans="2:13" ht="17.100000000000001" customHeight="1">
-      <c r="B25" s="25" t="s">
+      <c r="C23" s="27"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="44"/>
+    </row>
+    <row r="24" spans="2:13" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="44"/>
+    </row>
+    <row r="25" spans="2:13" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="25"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
-    </row>
-    <row r="26" spans="2:13" ht="17.100000000000001" customHeight="1">
+      <c r="C25" s="27"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="44"/>
+    </row>
+    <row r="26" spans="2:13" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="14"/>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
@@ -1547,62 +1546,62 @@
       <c r="K26" s="14"/>
       <c r="L26" s="13"/>
     </row>
-    <row r="27" spans="2:13" ht="17.100000000000001" customHeight="1">
-      <c r="B27" s="25" t="s">
+    <row r="27" spans="2:13" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="25"/>
+      <c r="C27" s="27"/>
       <c r="D27" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E27" s="25" t="s">
+      <c r="E27" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25" t="s">
+      <c r="F27" s="27"/>
+      <c r="G27" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25" t="s">
+      <c r="H27" s="27"/>
+      <c r="I27" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="J27" s="25"/>
-      <c r="K27" s="25" t="s">
+      <c r="J27" s="27"/>
+      <c r="K27" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="L27" s="25"/>
-    </row>
-    <row r="28" spans="2:13" ht="17.100000000000001" customHeight="1">
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
+      <c r="L27" s="27"/>
+    </row>
+    <row r="28" spans="2:13" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
       <c r="D28" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="61"/>
-      <c r="H28" s="61"/>
-      <c r="I28" s="53"/>
-      <c r="J28" s="54"/>
-      <c r="K28" s="57"/>
-      <c r="L28" s="58"/>
-    </row>
-    <row r="29" spans="2:13" ht="17.100000000000001" customHeight="1">
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
+      <c r="E28" s="50"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="60"/>
+      <c r="H28" s="60"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="53"/>
+      <c r="K28" s="56"/>
+      <c r="L28" s="57"/>
+    </row>
+    <row r="29" spans="2:13" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
       <c r="D29" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E29" s="52"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="46"/>
-      <c r="H29" s="46"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="56"/>
-      <c r="K29" s="59"/>
-      <c r="L29" s="60"/>
-    </row>
-    <row r="30" spans="2:13" ht="17.100000000000001" customHeight="1">
+      <c r="E29" s="51"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="61"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="55"/>
+      <c r="K29" s="58"/>
+      <c r="L29" s="59"/>
+    </row>
+    <row r="30" spans="2:13" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
@@ -1615,73 +1614,73 @@
       <c r="K30" s="11"/>
       <c r="L30" s="11"/>
     </row>
-    <row r="31" spans="2:13" ht="17.100000000000001" customHeight="1">
-      <c r="B31" s="50" t="s">
+    <row r="31" spans="2:13" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="50"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="50"/>
-      <c r="I31" s="50"/>
-      <c r="J31" s="50"/>
-      <c r="K31" s="50"/>
-      <c r="L31" s="50"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="49"/>
+      <c r="L31" s="49"/>
       <c r="M31" s="16"/>
     </row>
-    <row r="32" spans="2:13" ht="20.100000000000001" customHeight="1">
-      <c r="B32" s="27"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="27"/>
-      <c r="K32" s="27"/>
-      <c r="L32" s="27"/>
-    </row>
-    <row r="33" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B33" s="27"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="27"/>
-      <c r="K33" s="27"/>
-      <c r="L33" s="27"/>
-    </row>
-    <row r="34" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B34" s="27"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="27"/>
-      <c r="K34" s="27"/>
-      <c r="L34" s="27"/>
-    </row>
-    <row r="35" spans="2:12" ht="20.100000000000001" customHeight="1">
-      <c r="B35" s="27"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="27"/>
-      <c r="K35" s="27"/>
-      <c r="L35" s="27"/>
+    <row r="32" spans="2:13" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="44"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="44"/>
+      <c r="K32" s="44"/>
+      <c r="L32" s="44"/>
+    </row>
+    <row r="33" spans="2:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="44"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="44"/>
+      <c r="K33" s="44"/>
+      <c r="L33" s="44"/>
+    </row>
+    <row r="34" spans="2:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="44"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="44"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="44"/>
+      <c r="K34" s="44"/>
+      <c r="L34" s="44"/>
+    </row>
+    <row r="35" spans="2:12" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="44"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="44"/>
+      <c r="J35" s="44"/>
+      <c r="K35" s="44"/>
+      <c r="L35" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="57">
@@ -1698,14 +1697,18 @@
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="I27:J27"/>
-    <mergeCell ref="B16:L16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="D23:L24"/>
+    <mergeCell ref="H20:L20"/>
+    <mergeCell ref="H21:L21"/>
+    <mergeCell ref="B20:G20"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="D25:L25"/>
     <mergeCell ref="K18:L18"/>
     <mergeCell ref="I18:J18"/>
     <mergeCell ref="B21:G21"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="B23:C24"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="H19:L19"/>
@@ -1714,6 +1717,14 @@
     <mergeCell ref="B14:L14"/>
     <mergeCell ref="K11:L11"/>
     <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B16:L16"/>
     <mergeCell ref="B2:L2"/>
     <mergeCell ref="D9:F9"/>
     <mergeCell ref="G10:H10"/>
@@ -1730,18 +1741,6 @@
     <mergeCell ref="I9:L9"/>
     <mergeCell ref="K10:L10"/>
     <mergeCell ref="I7:L7"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D23:L24"/>
-    <mergeCell ref="H20:L20"/>
-    <mergeCell ref="H21:L21"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B23:C24"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B20:G20"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
